--- a/data/trans_orig/Q04C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q04C_2023-Habitat-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>110.6820511062325</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>110.1030481071852</v>
+        <v>110.1030481071853</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>110.3953403150119</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>107.2018038114538</v>
+        <v>107.5718897665201</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>107.7907001115694</v>
+        <v>107.8439491561713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108.3310387266674</v>
+        <v>108.4983214355661</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>115.2772910062007</v>
+        <v>115.5344767370085</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>112.6022670308084</v>
+        <v>112.6254873878107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113.3001220977718</v>
+        <v>113.5141329029118</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>102.079902901967</v>
+        <v>102.0799029019669</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>99.69911048552751</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>99.74960617215997</v>
+        <v>100.0259057574976</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>98.18905456062387</v>
+        <v>98.20880268138373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>99.52351900404004</v>
+        <v>99.45056549335588</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>104.6130327845962</v>
+        <v>104.4614706665934</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>101.533955096812</v>
+        <v>101.518964623637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>102.3703424559891</v>
+        <v>102.3106247215403</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>95.18064436228677</v>
+        <v>95.18064436228678</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>94.43985818255589</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>92.67053426306967</v>
+        <v>92.45892970901315</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>92.74731813225605</v>
+        <v>92.8492046384366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93.19297425775896</v>
+        <v>93.24998274505447</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>98.43000758157567</v>
+        <v>98.0094836349686</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>96.44041695475721</v>
+        <v>96.54627482078236</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96.61438291274359</v>
+        <v>96.53396555196151</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>93.86213804796691</v>
+        <v>93.86213804796689</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>91.5769381712622</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>91.20960820168102</v>
+        <v>91.07161666413906</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>89.64383307533323</v>
+        <v>89.70251920097955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91.08324219098081</v>
+        <v>90.91487020749389</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>98.01344510076103</v>
+        <v>98.01645072811918</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>93.88201924795985</v>
+        <v>93.82242321908411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>95.05790528255325</v>
+        <v>94.83382514136852</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>99.7066431624573</v>
+        <v>99.70664316245728</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>97.96794578663156</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>98.22438132829119</v>
+        <v>98.26126641646519</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>97.03715843406515</v>
+        <v>97.02348711374559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97.95652304579369</v>
+        <v>97.95790118429818</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>101.4075618059946</v>
+        <v>101.3258760055758</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>99.03769534975852</v>
+        <v>99.1618718965771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99.86026272587067</v>
+        <v>99.83538775534581</v>
       </c>
     </row>
     <row r="19">
